--- a/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/Baseline Results/all - baseline.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/Baseline Results/all - baseline.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Indipendent Power Supply for Feed Mills\Baseline Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A25E6-99EB-4A64-9F49-A7D97D1B8709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE781D5-1DD2-4137-AE1C-26611BA54E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -523,7 +534,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +710,7 @@
         <v>-326.63961359120731</v>
       </c>
       <c r="H4">
-        <v>-77.007392677653115</v>
+        <v>-82.648931633186294</v>
       </c>
       <c r="I4">
         <v>-15.57261713949447</v>
@@ -735,7 +746,7 @@
         <v>3266.4431103626121</v>
       </c>
       <c r="T4">
-        <v>771.69232440709311</v>
+        <v>828.1077139624249</v>
       </c>
       <c r="U4">
         <v>155.7268423738042</v>
@@ -773,7 +784,7 @@
         <v>-162.33064593885501</v>
       </c>
       <c r="H5">
-        <v>-36.945145529345609</v>
+        <v>-40.123668171989273</v>
       </c>
       <c r="I5">
         <v>-7.7377945277994513</v>
@@ -809,7 +820,7 @@
         <v>1623.352849523653</v>
       </c>
       <c r="T5">
-        <v>371.04972166656808</v>
+        <v>402.83494809300458</v>
       </c>
       <c r="U5">
         <v>77.378607910544815</v>
